--- a/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7328,7 +7329,6 @@
           <t>工银稳健成长混合H</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>94.35</t>
@@ -7360,7 +7360,6 @@
           <t>国融融泰灵活配置混合C</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
           <t>69.53</t>
@@ -7392,7 +7391,6 @@
           <t>人保行业轮动混合C</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>83.27</t>
@@ -7408,6 +7406,3328 @@
       </c>
       <c r="H116" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>143.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.7315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>147.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.1435</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4520</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1995</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0269</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6890</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6799</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4549</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3242</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0466</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0031</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8907</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8370</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8035</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7996</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7892</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7100</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6908</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6763</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6666</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5755</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5743</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5013</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4403</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3793</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3682</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3322</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10733,4 +10734,2112 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2521</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5133</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0704</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0649</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9354</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8984</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5837</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4106</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3467</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012326</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012327</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12842,4 +12843,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67.79000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12851,7 +12852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12862,17 +12863,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12882,14 +12903,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.94</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1039</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -12898,14 +12941,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>86</v>
-      </c>
-      <c r="D3" t="n">
-        <v>72.02</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0472</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -12914,14 +12979,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>115</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80.83</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>134.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -12930,13 +13017,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2202</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8847</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6430</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5765</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>86</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>115</v>
+      </c>
+      <c r="D5" t="n">
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>66</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>67.79000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14086,7 +14087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14097,17 +14098,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14117,14 +14138,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.64</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -14133,14 +14176,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.94</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2840</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -14149,14 +14214,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>86</v>
-      </c>
-      <c r="D4" t="n">
-        <v>72.02</v>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1721</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -14165,14 +14252,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>115</v>
-      </c>
-      <c r="D5" t="n">
-        <v>80.83</v>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -14181,13 +14290,1269 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4032</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6747</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6535</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4956</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>86</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>115</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>66</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>67.79000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15435,7 +15436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15446,17 +15447,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15466,14 +15487,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.79</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>119.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -15482,14 +15525,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.64</v>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1485</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -15498,14 +15563,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.94</v>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -15514,14 +15601,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>86</v>
-      </c>
-      <c r="D5" t="n">
-        <v>72.02</v>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0282</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -15530,14 +15639,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>115</v>
-      </c>
-      <c r="D6" t="n">
-        <v>80.83</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -15546,13 +15677,1283 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3627</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2502</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7558</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7330</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6955</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6145</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4110</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2960</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>115</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>66</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>67.79000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>27.23</v>
+        <v>34.16</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>24.79</v>
+        <v>27.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>29.64</v>
+        <v>24.79</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>30.94</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>72.02</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n">
-        <v>80.83</v>
+        <v>72.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>115</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>66</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>67.79000000000001</v>
       </c>
     </row>
@@ -600,6 +617,2076 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6773</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>157.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9317</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9327</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6626</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6470</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5854</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5187</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4709</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3969</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1983,7 +4070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3331,7 +5418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4565,7 +6652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6673,7 +8760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9995,7 +12082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14400,7 +16487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300529-健帆生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>34.16</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>27.23</v>
+        <v>34.16</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>24.79</v>
+        <v>27.23</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>29.64</v>
+        <v>24.79</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>30.94</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>72.02</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D8" t="n">
-        <v>80.83</v>
+        <v>72.02</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2592 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>115</v>
+      </c>
+      <c r="D9" t="n">
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>66</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>67.79000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>195.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0456</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>146.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8591</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>162.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.3962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>158.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1252</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2577</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9508</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4244</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9337</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7529</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6948</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6948</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5896</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5102</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3280</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3280</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2577</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9525</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9366</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7554</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7494</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6265</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5833</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5228</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4946</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3935</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>56.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>56.69</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3196,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4940</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2686,7 +6043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4070,7 +7427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5418,7 +8775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6652,7 +10009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8760,7 +12117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12082,7 +15439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16485,2566 +19842,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005911</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发双擎升级混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>195.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.0456</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002939</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发创新升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>146.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.8591</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162703</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发小盘成长混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>162.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6.3962</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161726</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商国证生物医药指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>158.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4.1252</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001717</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>68.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.2577</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009362</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商丰盈积极配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>63.87</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.9508</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003745</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发多元新兴股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.7011</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000960</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商医药健康产业股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>32.26</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2.4808</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>213001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈鸿利收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>44.16</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2.4244</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005176</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国精准医疗灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>45.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2.1305</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000831</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信医疗保健行业股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.9337</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009360</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商创新增长混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.7529</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009275</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>融通医疗保健行业混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.6948</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161616</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>融通医疗保健行业混合A/B</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.6948</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000452</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方医药保健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>27.36</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.5896</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000924</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>宝盈先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>26.73</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.5102</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>960024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实成长收益混合H</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>35.99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>74.37</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.3280</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>070001</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>嘉实成长收益混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>35.99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>74.37</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1.3280</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006002</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>工银瑞信医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>24.14</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1.2577</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>217009</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商核心价值混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.9525</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000220</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国医疗保健行业混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>19.97</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.9366</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008227</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>14.90</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.7554</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>310308</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>申万菱信盛利精选混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>73.74</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.7494</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001558</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>天弘医疗健康混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>14.11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.6265</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001915</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>宝盈医疗健康沪港深股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.5833</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>159966</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华夏创业板低波蓝筹ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.5607</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>217010</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>招商大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>9.94</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88.70</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.5228</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006218</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>富国生物医药科技混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>14.72</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.4946</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009695</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.3935</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009363</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>招商丰盈积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.3802</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009162</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>富国医药成长30股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.3306</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>160143</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>南方创业板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>95.86</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.3125</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>240020</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华宝医药生物优选混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.2848</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006003</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>工银瑞信医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.2688</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009314</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>广发双擎升级混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.2602</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001559</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>天弘医疗健康混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.2531</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>008228</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.2469</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>100016</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>67.47</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.2410</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003601</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.2367</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001749</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>招商中国机遇股票</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1936</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>009361</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>招商创新增长混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1598</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>002249</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>招商境远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>88.10</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1550</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>001677</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>中银战略新兴产业股票A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.1394</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>005732</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>富国臻选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>80.88</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.1213</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>009132</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>广发小盘成长混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.1135</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>007581</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>宝盈鸿利收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.1109</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>009696</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.1056</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>003886</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.1006</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>003887</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0977</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>163001</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>长信医疗保健行业灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0961</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>080008</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>长盛战略新兴产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>70.13</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0849</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>010685</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0848</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>001834</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>长盛战略新兴产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>70.13</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0729</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>003594</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>长盛盛崇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>56.69</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0680</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>519613</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>28.39</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0545</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>519615</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>28.39</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0545</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>003602</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0287</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>007579</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>宝盈先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>001628</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>招商体育文化休闲股票</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>006573</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>011151</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>富国医疗保健行业混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>003595</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>长盛盛崇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>56.69</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>010812</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>中银战略新兴产业股票C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>011308</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>富国生物医药科技混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>519614</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>28.39</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>006574</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>